--- a/apps/management/data/ueconfig.xlsx
+++ b/apps/management/data/ueconfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KULIAH\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E37724-60B7-4FC6-A035-B13C27669F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCE6C3-D269-411C-A33D-DBF8D1F87B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8FBC7B21-0028-45A5-BB7F-F9FA67C5CE0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
   <si>
     <t>192.168.1.3</t>
   </si>
@@ -44,9 +44,6 @@
     <t>192.168.1.2</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6966</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC1</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>192.168.1.10</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6967</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC2</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>192.168.1.18</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6968</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC3</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>192.168.1.26</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6969</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC4</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>192.168.1.34</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6970</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC5</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>192.168.1.42</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6971</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC6</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>192.168.1.50</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6972</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC7</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>192.168.1.58</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6973</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC8</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>192.168.1.66</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6974</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77CC9</t>
   </si>
   <si>
@@ -161,9 +134,6 @@
     <t>192.168.1.74</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6975</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C10</t>
   </si>
   <si>
@@ -173,9 +143,6 @@
     <t>192.168.1.82</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6976</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C11</t>
   </si>
   <si>
@@ -185,9 +152,6 @@
     <t>192.168.1.90</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6977</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C12</t>
   </si>
   <si>
@@ -197,9 +161,6 @@
     <t>192.168.1.98</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6978</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C13</t>
   </si>
   <si>
@@ -209,9 +170,6 @@
     <t>192.168.1.106</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6979</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C14</t>
   </si>
   <si>
@@ -221,9 +179,6 @@
     <t>192.168.1.114</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6980</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C15</t>
   </si>
   <si>
@@ -233,9 +188,6 @@
     <t>192.168.1.122</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6981</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C16</t>
   </si>
   <si>
@@ -245,9 +197,6 @@
     <t>192.168.1.130</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6982</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C17</t>
   </si>
   <si>
@@ -257,9 +206,6 @@
     <t>192.168.1.138</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6983</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C18</t>
   </si>
   <si>
@@ -269,9 +215,6 @@
     <t>192.168.1.146</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6984</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C19</t>
   </si>
   <si>
@@ -281,9 +224,6 @@
     <t>192.168.1.154</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6985</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C20</t>
   </si>
   <si>
@@ -293,9 +233,6 @@
     <t>192.168.1.162</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6986</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C21</t>
   </si>
   <si>
@@ -305,9 +242,6 @@
     <t>192.168.1.170</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6987</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C22</t>
   </si>
   <si>
@@ -317,9 +251,6 @@
     <t>192.168.1.178</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6988</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C23</t>
   </si>
   <si>
@@ -329,9 +260,6 @@
     <t>192.168.1.186</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6989</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C24</t>
   </si>
   <si>
@@ -341,9 +269,6 @@
     <t>192.168.1.194</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6990</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C25</t>
   </si>
   <si>
@@ -353,9 +278,6 @@
     <t>192.168.1.202</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6991</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C26</t>
   </si>
   <si>
@@ -365,9 +287,6 @@
     <t>192.168.1.210</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6992</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C27</t>
   </si>
   <si>
@@ -377,9 +296,6 @@
     <t>192.168.1.218</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6993</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C28</t>
   </si>
   <si>
@@ -389,9 +305,6 @@
     <t>192.168.1.226</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6994</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C29</t>
   </si>
   <si>
@@ -401,9 +314,6 @@
     <t>192.168.1.234</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6995</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C30</t>
   </si>
   <si>
@@ -413,9 +323,6 @@
     <t>192.168.1.242</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6996</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C31</t>
   </si>
   <si>
@@ -425,9 +332,6 @@
     <t>192.168.1.250</t>
   </si>
   <si>
-    <t>a92d71ed92f43ebae1720f34fd2e6997</t>
-  </si>
-  <si>
     <t>C42449363BBAD02B66D16BC975D77C32</t>
   </si>
   <si>
@@ -456,6 +360,84 @@
   </si>
   <si>
     <t>usrp</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8f</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8g</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8h</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8i</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8j</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8k</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8l</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8m</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8n</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8o</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8p</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8q</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8r</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8s</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8t</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8u</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8v</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8w</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8x</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8y</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8z</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8a</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8b</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8c</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8d</t>
+  </si>
+  <si>
+    <t>fec86ba6eb707ed08905757b1bb44b8e</t>
   </si>
 </sst>
 </file>
@@ -876,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018DE59-1B14-4067-800D-B2D9C010D12D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,31 +869,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -925,921 +907,921 @@
         <v>208990000000101</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>208990000000102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>208990000000103</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>208990000000104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
         <v>208990000000105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>208990000000106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>208990000000107</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>208990000000108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>208990000000109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>208990000000110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>208990000000111</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>208990000000112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>208990000000113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4">
         <v>208990000000114</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4">
         <v>208990000000115</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
         <v>208990000000116</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4">
         <v>208990000000117</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4">
         <v>208990000000118</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4">
         <v>208990000000119</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4">
         <v>208990000000120</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4">
         <v>208990000000121</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4">
         <v>208990000000122</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4">
         <v>208990000000123</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4">
         <v>208990000000124</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4">
         <v>208990000000125</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4">
         <v>208990000000126</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4">
         <v>208990000000127</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4">
         <v>208990000000128</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4">
         <v>208990000000129</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4">
         <v>208990000000130</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4">
         <v>208990000000131</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4">
         <v>208990000000132</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
